--- a/file/demo.xlsx
+++ b/file/demo.xlsx
@@ -95,8 +95,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -108,40 +108,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,6 +131,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -161,16 +175,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,29 +207,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,13 +221,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -236,17 +229,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,187 +261,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,15 +466,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -486,15 +477,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,8 +499,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,21 +552,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -560,10 +560,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,137 +572,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,6 +711,12 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1063,14 +1069,14 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="19.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="29.8888888888889" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1083,7 +1089,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1097,7 +1103,7 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>43891.5041666667</v>
       </c>
     </row>
@@ -1111,7 +1117,7 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>43891.5048611111</v>
       </c>
     </row>
@@ -1125,7 +1131,7 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>43891.5055555556</v>
       </c>
     </row>
@@ -1139,7 +1145,7 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>43891.50625</v>
       </c>
     </row>
@@ -1153,7 +1159,7 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>43891.5069444444</v>
       </c>
     </row>
@@ -1167,7 +1173,7 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>43891.5076388889</v>
       </c>
     </row>
@@ -1181,7 +1187,7 @@
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>43891.5083333333</v>
       </c>
     </row>
@@ -1195,7 +1201,7 @@
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>43891.5090277778</v>
       </c>
     </row>
@@ -1209,7 +1215,7 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>43891.5097222222</v>
       </c>
     </row>
@@ -1223,7 +1229,7 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>43891.5104166667</v>
       </c>
     </row>
